--- a/jpcore-r4/feature/swg2-physicalexam/ValueSet-jp-medication-instruction-for-dispense-jhsp0002-vs.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/ValueSet-jp-medication-instruction-for-dispense-jhsp0002-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T22:57:55+00:00</t>
+    <t>2022-09-09T22:32:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
